--- a/ProblemSolvingSheet.xlsx
+++ b/ProblemSolvingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problem Solving\SDE-Problem-Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C0096-7A05-49D5-996A-6269D2DD0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56997AAC-E810-4F80-B136-DB4D84A3AD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Link</t>
   </si>
@@ -151,6 +151,99 @@
   </si>
   <si>
     <t>Use for loop for external iteration of i, intialize j and k as i+1 and n-1 respectively and check if sum is greater or lesser and update k and j accordingly</t>
+  </si>
+  <si>
+    <t>Ishaan Loves Chocolates</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/ishaan-loves-chocolates2156/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>At last, only chocolate with less tastiness level will remail at last, so minimum in the array will remain, in two pointers approach decrease or increase the pointer which is bigger</t>
+  </si>
+  <si>
+    <t>Sort the Half Sorted</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-the-half-sorted2157/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>find the breaking point where array is divided and store least element to the new array.</t>
+  </si>
+  <si>
+    <t>Message decoding</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/message-decoding4305/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>declare a string of hello, and find it every character is equal and increase the counter if equal, if counter is 5 then return true</t>
+  </si>
+  <si>
+    <t>Length of longest subarray</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/length-of-longest-subarray0440/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>run a for loop and count when number is positive, reset the count when number is negative and find the max count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare i and j at 0th index, increase j till number is negative, subtract to find the length, and equate the i and j at negative position, </t>
+  </si>
+  <si>
+    <t>Maximum sum of subarray less than or equal to x</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-sum-of-subarray-less-than-or-equal-to-x4033/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>declare i and j at 0th index and increase j till sum exceeds X, when it does subtract element is ith position and increase i then calculate the max element.</t>
+  </si>
+  <si>
+    <t>Pair with given sum in a sorted array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/pair-with-given-sum-in-a-sorted-array4940/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>declare two pointer at beginning and end of the array and count if pair is equal to the sum</t>
+  </si>
+  <si>
+    <t>store all the elements in the array of hashmap and find if sum-i is present in the hashmap</t>
+  </si>
+  <si>
+    <t>Special array reversal</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/special-array-reversal2328/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declare two pointer at 0 and n-1 swap when both are not special character otherwise when special increase and decrease j respectively, </t>
+  </si>
+  <si>
+    <t>Triplet Sum in Array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/triplet-sum-in-array-1587115621/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>similar question like count triplets problem at a15 cell,  have three pointers first at I, j and k at second last and last element respectively, in loop fix one pointer at last element. And write while loop for i and j</t>
+  </si>
+  <si>
+    <t>use hashmap to store all the elements and try to find X-(a+b) in the hashmap, if exists then true</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Number of subarrays with maximum values in given range</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-subarrays-with-maximum-values-in-given-range5949/1?page=1&amp;status[]=unsolved&amp;category[]=two-pointer-algorithm&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>initialize two pointers at 0th positiion and increase j and and run while loop till j&lt;n, when in range window size is j-i+1 when greater than range than reset the window size and i=j+1; and start again.</t>
   </si>
 </sst>
 </file>
@@ -504,17 +597,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="131.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="173.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,6 +861,174 @@
       </c>
       <c r="D18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +1051,20 @@
     <hyperlink ref="B16" r:id="rId15" xr:uid="{62947AE5-EAAB-4A13-8BD2-6E1EE1FD118C}"/>
     <hyperlink ref="B17" r:id="rId16" xr:uid="{7FA5A6E5-B717-4F45-AFB7-5A1961AD693F}"/>
     <hyperlink ref="B18" r:id="rId17" xr:uid="{1CC4530E-CB8A-4B64-89FD-E1A5D36C8D7A}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{03B7F3AF-AA96-411F-AA61-30542892B0F2}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{64DCCA04-FE7F-44A8-88AB-D6CE1D7ED631}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{27F55863-F133-42C4-8294-03E4EDBCBCE5}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{9B539E1F-5B8E-4D10-A9CA-B97533F9D932}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{128DC068-C238-4DC5-8EEB-EA561779D080}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{37C41EC4-4AF2-46FF-BBE6-57C2A2FB1871}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{DAFE70AD-7D51-48A6-8424-67F391E5CCDE}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{9068D2D4-1414-4447-84FA-78A58863CA2A}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{9F10A187-EDAC-44E7-A70F-E0627CD7A63F}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{5CFC6E8E-6C19-4AB0-A9F5-10AB6197283A}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{97DFE380-83E1-43BF-BA2F-6E2B63844797}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{0CC4A8B4-28BF-4ED5-AD24-CCACC47EE88A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/ProblemSolvingSheet.xlsx
+++ b/ProblemSolvingSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problem Solving\SDE-Problem-Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56997AAC-E810-4F80-B136-DB4D84A3AD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3A305-D584-4911-86D4-427ADCEF2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoPointers" sheetId="1" r:id="rId1"/>
+    <sheet name="SlidingWindow" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TwoPointers!$A$1:$D$16</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>Link</t>
   </si>
@@ -244,6 +245,42 @@
   </si>
   <si>
     <t>initialize two pointers at 0th positiion and increase j and and run while loop till j&lt;n, when in range window size is j-i+1 when greater than range than reset the window size and i=j+1; and start again.</t>
+  </si>
+  <si>
+    <t>Max Sum Subarray of size K</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/max-sum-subarray-of-size-k5313/1?page=1&amp;status[]=unsolved&amp;category[]=sliding-window&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>declare two pointer at starting position and increase j when window is smaller and when window becomes the K fetch the maximum sum, do i++ when and sum-=a[i] when moving window forward.</t>
+  </si>
+  <si>
+    <t>Subarray with given sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1?page=1&amp;status[]=unsolved&amp;category[]=sliding-window&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>declare two pointers at 1 because it is one based indexing, increase second pointer till along with that do the sum, now, subtract the first element till sum is less than given Sum S, and check for maximum sum meanwhile</t>
+  </si>
+  <si>
+    <t>Count distinct elements in every window</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-distinct-elements-in-every-window/1?page=1&amp;status[]=unsolved&amp;category[]=sliding-window&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>Subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-0-sum-1587115621/1?page=1&amp;status[]=unsolved&amp;category[]=sliding-window&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>sum all the elements and put it into the set, if it contains the sum then return true, the reason behind this logic is if we encounter same sum twice then there must me minus value present in the array that subract the whole sum</t>
+  </si>
+  <si>
+    <t>declare two pointer at starting position and increase j and along with that add element to the  hashmap with frequency, if window size is k then count the size of the hashmap, if freq is 1 then remove it it greater than one then subtract it</t>
   </si>
 </sst>
 </file>
@@ -307,12 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,8 +639,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -667,7 +707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,7 +763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -765,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2">
+    <row r="12" spans="1:4" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1067,4 +1107,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2ABA1-3236-426F-8D12-BC74D92676D1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{331FFA04-1A6C-465A-B987-6936E9B4D5B7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C070F5B0-B18E-45E4-9938-55C97AC3A346}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F2F5D71F-4900-456E-B246-BDBF96922483}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7DD74457-D604-4007-A388-2FE3A150D05A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/ProblemSolvingSheet.xlsx
+++ b/ProblemSolvingSheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problem Solving\SDE-Problem-Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3A305-D584-4911-86D4-427ADCEF2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F522A49-7ACE-4BEA-9866-B6B3C4D42BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoPointers" sheetId="1" r:id="rId1"/>
     <sheet name="SlidingWindow" sheetId="2" r:id="rId2"/>
+    <sheet name="Trees" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TwoPointers!$A$1:$D$16</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
   <si>
     <t>Link</t>
   </si>
@@ -281,6 +282,87 @@
   </si>
   <si>
     <t>declare two pointer at starting position and increase j and along with that add element to the  hashmap with frequency, if window size is k then count the size of the hashmap, if freq is 1 then remove it it greater than one then subtract it</t>
+  </si>
+  <si>
+    <t>Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/preorder-traversal/1?page=1&amp;difficulty[]=-1&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>In preorder first print the root node and then print left and right node, so we will write a recursive function that prints the node first and checks if left or right are not null, if they are not null then again it will consider current node as the root node and procees further</t>
+  </si>
+  <si>
+    <t>Preorder traversal (Iterative)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/preorder-traversal-iterative/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idea is easy, declare a stack, and push the root to the stack, while stack is not empty, print the first node and pop the first node to the stack, push right and left node of that popped node </t>
+  </si>
+  <si>
+    <t>Height of Heap</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/height-of-heap5025/1?page=1&amp;difficulty[]=-1&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>Height of the heap is totalNumberofLevels-1, if we see the pattern so it is 1,2,4,8,16,32, i=i*2</t>
+  </si>
+  <si>
+    <t>Size of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1?page=1&amp;difficulty[]=-1&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterative preorder, and count the elements </t>
+  </si>
+  <si>
+    <t>Postorder Traversal</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/postorder-traversal/1?page=1&amp;difficulty[]=-1&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print the left node then right and lastly print the root node, </t>
+  </si>
+  <si>
+    <t>Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/inorder-traversal/1?page=1&amp;difficulty[]=-1&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>print the left node then root and then right node</t>
+  </si>
+  <si>
+    <t>Minimum element in BST</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1?page=1&amp;difficulty[]=-1&amp;status[]=unsolved&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>last left node data will be the minimum data. Because in binary tree left is lower than root and right is bigger than root, is left==null break, that is the base case of the scenario</t>
+  </si>
+  <si>
+    <t>Sum of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sum-of-binary-tree/1?page=1&amp;difficulty[]=-1&amp;status[]=unsolved&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use preorder or any order traversal and keep adding the elements </t>
+  </si>
+  <si>
+    <t>Count Non-Leaf Nodes in Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-non-leaf-nodes-in-tree/1?page=1&amp;difficulty[]=-1&amp;status[]=unsolved&amp;category[]=Tree&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>use preorder or any order traversal and check is left or right is not null</t>
   </si>
 </sst>
 </file>
@@ -639,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1113,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2ABA1-3236-426F-8D12-BC74D92676D1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1205,4 +1287,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B127412-4472-478D-96C1-877456BD5FA1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{27B8E7A6-D509-49BA-9635-F41DDA592C67}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7330C84C-8C48-4073-B7DE-CBD266C8DD79}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{42E40F06-0313-464F-BEF6-18F97E5075B4}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{02C860E8-890F-4D79-AA38-6C38AA1C4DAB}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9791B18D-0742-4975-BFA9-270FC119466C}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{2A9B4B09-1F4F-4FED-9B3E-D3843809049F}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{F7B9FA5D-00B0-40CC-BA0D-97AFB9943BEF}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{D1A575EE-D40D-4D0C-BEA8-E91976E9CF60}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{2C641DA7-4DB4-4283-A522-12BB92B3775F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
 </file>
--- a/ProblemSolvingSheet.xlsx
+++ b/ProblemSolvingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problem Solving\SDE-Problem-Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F522A49-7ACE-4BEA-9866-B6B3C4D42BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF225B-EC50-4FC4-8A48-B03FB417CDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoPointers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>Link</t>
   </si>
@@ -363,6 +363,33 @@
   </si>
   <si>
     <t>use preorder or any order traversal and check is left or right is not null</t>
+  </si>
+  <si>
+    <t>Maximum GCD of siblings of a binary tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-gcd-of-siblings-of-a-binary-tree/1?page=1&amp;difficulty[]=0&amp;curated[]=6&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>get the gcd function, sort the 2d arraylist and then only check max gcd when two first nodes are same otherwise don’t , for the gcd function, get ma min value and run the while loop till min is not zero and check is n1 and n2 both divides the min number</t>
+  </si>
+  <si>
+    <t>Check for BST</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-for-bst/1?page=1&amp;difficulty[]=0&amp;curated[]=6&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>if this is the bst then inorder traversal will provide the sorted answer, fill all the elements with the array and check that is sorted or not</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/mirror-tree/1?page=1&amp;difficulty[]=0&amp;curated[]=6&amp;sortBy=difficulty</t>
+  </si>
+  <si>
+    <t>Mirror Tree</t>
+  </si>
+  <si>
+    <t>Use stack, fill the first node and then run stack till stack is empty, get the current node and swap the nodes then pop from the stack. Push into the stack whether right or left if they are not null</t>
   </si>
 </sst>
 </file>
@@ -721,8 +748,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1195,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2ABA1-3236-426F-8D12-BC74D92676D1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1291,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B127412-4472-478D-96C1-877456BD5FA1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -1443,6 +1470,48 @@
       </c>
       <c r="D10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1456,8 +1525,11 @@
     <hyperlink ref="B8" r:id="rId7" xr:uid="{F7B9FA5D-00B0-40CC-BA0D-97AFB9943BEF}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{D1A575EE-D40D-4D0C-BEA8-E91976E9CF60}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{2C641DA7-4DB4-4283-A522-12BB92B3775F}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{18DD3B17-C946-4C61-8EA0-01FAE4AA6277}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{11287BE2-5E3C-4931-9E14-DE5CE703ACA2}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{47194701-3352-44EA-9FE1-7179DC1D3D59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>